--- a/timemanage/TimeManage.xlsx
+++ b/timemanage/TimeManage.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="模板" sheetId="1" r:id="rId1"/>
+    <sheet name="2018-05-29" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
   <si>
     <t>重要不紧急（64%时间）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +132,25 @@
   <si>
     <t>重要紧急（16%时间）
 1，事情A，换行 ALT+entry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">重要紧急（16%时间）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">紧急不重要（16%时间）
+1，聚富汇测试协助
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">重要不紧急（64%时间）
+1，征信查询两个页面
+2，学习专业知识
+3，学习经济学
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,14 +547,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -542,12 +556,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -563,47 +625,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -921,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -936,441 +962,441 @@
   <sheetData>
     <row r="1" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="23.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="2:6" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="23.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="20"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
     </row>
     <row r="8" spans="2:6" ht="36.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="3"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="1"/>
+      <c r="E8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="8"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="7"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D11" s="8"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="7"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="8"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="7"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="8"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="7"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="8"/>
-      <c r="E14" s="1" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D15" s="8"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="7"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="8"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="7"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="8"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="7"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="8"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="7"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="8"/>
-      <c r="E19" s="1" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="8"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="7"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="8"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="7"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="8"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="7"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="9"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="7"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="7"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="8"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="7"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="8"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="7"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="8"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="7"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="8"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="7"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="8"/>
-      <c r="E29" s="1" t="s">
+      <c r="D29" s="22"/>
+      <c r="E29" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="7"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="8"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="7"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="8"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="7"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="8"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="7"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="8"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="7"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="7"/>
+      <c r="F34" s="4"/>
     </row>
     <row r="35" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="10"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="7"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="10"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="7"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="10"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="7"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D38" s="10"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="7"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="4"/>
     </row>
     <row r="39" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="10"/>
-      <c r="E39" s="1" t="s">
+      <c r="D39" s="24"/>
+      <c r="E39" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F39" s="7"/>
+      <c r="F39" s="4"/>
     </row>
     <row r="40" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="10"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="7"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="4"/>
     </row>
     <row r="41" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="10"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="7"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D42" s="10"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="7"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="10"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="7"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D44" s="10"/>
-      <c r="E44" s="1" t="s">
+      <c r="D44" s="24"/>
+      <c r="E44" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="7"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="10"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="7"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="4"/>
     </row>
     <row r="46" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D46" s="10"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="7"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="4"/>
     </row>
     <row r="47" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D47" s="10"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="7"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="4"/>
     </row>
     <row r="48" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D48" s="10"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="7"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="4"/>
     </row>
     <row r="49" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="10"/>
-      <c r="E49" s="1" t="s">
+      <c r="D49" s="24"/>
+      <c r="E49" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F49" s="7"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D50" s="10"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="7"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="4"/>
     </row>
     <row r="51" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D51" s="10"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="7"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="4"/>
     </row>
     <row r="52" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D52" s="10"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="7"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="4"/>
     </row>
     <row r="53" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D53" s="11"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="7"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="4"/>
     </row>
     <row r="54" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D54" s="6" t="s">
+      <c r="D54" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F54" s="7"/>
+      <c r="F54" s="4"/>
     </row>
     <row r="55" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D55" s="10"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="7"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="4"/>
     </row>
     <row r="56" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D56" s="10"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="7"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="4"/>
     </row>
     <row r="57" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D57" s="10"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="7"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="4"/>
     </row>
     <row r="58" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D58" s="10"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="7"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="4"/>
     </row>
     <row r="59" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D59" s="10"/>
-      <c r="E59" s="1" t="s">
+      <c r="D59" s="24"/>
+      <c r="E59" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="7"/>
+      <c r="F59" s="4"/>
     </row>
     <row r="60" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D60" s="10"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="7"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="4"/>
     </row>
     <row r="61" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D61" s="10"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="7"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="4"/>
     </row>
     <row r="62" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D62" s="10"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="7"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="4"/>
     </row>
     <row r="63" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D63" s="10"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="7"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="4"/>
     </row>
     <row r="64" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D64" s="10"/>
-      <c r="E64" s="1" t="s">
+      <c r="D64" s="24"/>
+      <c r="E64" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F64" s="7"/>
+      <c r="F64" s="4"/>
     </row>
     <row r="65" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D65" s="10"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="7"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="4"/>
     </row>
     <row r="66" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D66" s="10"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="7"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="4"/>
     </row>
     <row r="67" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D67" s="10"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="7"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="4"/>
     </row>
     <row r="68" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D68" s="10"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="7"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="4"/>
     </row>
     <row r="69" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F69" s="7"/>
+      <c r="F69" s="4"/>
     </row>
     <row r="70" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D70" s="10"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="7"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="4"/>
     </row>
     <row r="71" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D71" s="10"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="7"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="4"/>
     </row>
     <row r="72" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D72" s="10"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="7"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="4"/>
     </row>
     <row r="73" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D73" s="10"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="7"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="4"/>
     </row>
     <row r="74" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D74" s="10"/>
-      <c r="E74" s="1" t="s">
+      <c r="D74" s="24"/>
+      <c r="E74" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="F74" s="7"/>
+      <c r="F74" s="4"/>
     </row>
     <row r="75" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D75" s="10"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="7"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="4"/>
     </row>
     <row r="76" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D76" s="10"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="7"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="4"/>
     </row>
     <row r="77" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D77" s="10"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="7"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="4"/>
     </row>
     <row r="78" spans="4:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D78" s="12"/>
-      <c r="E78" s="13"/>
-      <c r="F78" s="14"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="5"/>
     </row>
     <row r="79" spans="4:6" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -1401,4 +1427,490 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:F79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="52.21875" customWidth="1"/>
+    <col min="3" max="3" width="53.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="88.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="23.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="2:6" ht="114.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="115.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="23.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="2:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="2:6" ht="36.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="1"/>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="22"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="22"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="22"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="22"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="22"/>
+      <c r="E14" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" s="22"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="22"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="22"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="22"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="22"/>
+      <c r="E19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="22"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="22"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="22"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="23"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="22"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="22"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="22"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="22"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="22"/>
+      <c r="E29" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="22"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="22"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="22"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="22"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="24"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="24"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="24"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="24"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="24"/>
+      <c r="E39" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="24"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="24"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="24"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="24"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="24"/>
+      <c r="E44" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="24"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="24"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="24"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="24"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="24"/>
+      <c r="E49" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="24"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="24"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="24"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="25"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="24"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="24"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="24"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="24"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="24"/>
+      <c r="E59" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="24"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="24"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D62" s="24"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D63" s="24"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="24"/>
+      <c r="E64" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="24"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="24"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D67" s="24"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D68" s="24"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D69" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D70" s="24"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D71" s="24"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D72" s="24"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D73" s="24"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D74" s="24"/>
+      <c r="E74" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D75" s="24"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D76" s="24"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="4:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D77" s="24"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="4:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D78" s="26"/>
+      <c r="E78" s="20"/>
+      <c r="F78" s="5"/>
+    </row>
+    <row r="79" spans="4:6" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="D6:F7"/>
+    <mergeCell ref="D9:D23"/>
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="D24:D33"/>
+    <mergeCell ref="E24:E28"/>
+    <mergeCell ref="E29:E33"/>
+    <mergeCell ref="D34:D53"/>
+    <mergeCell ref="E34:E38"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="E44:E48"/>
+    <mergeCell ref="E49:E53"/>
+    <mergeCell ref="D54:D68"/>
+    <mergeCell ref="E54:E58"/>
+    <mergeCell ref="E59:E63"/>
+    <mergeCell ref="E64:E68"/>
+    <mergeCell ref="D69:D78"/>
+    <mergeCell ref="E69:E73"/>
+    <mergeCell ref="E74:E78"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
 </file>